--- a/docs/Aspekty.xlsx
+++ b/docs/Aspekty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -2098,8 +2098,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -31146,8 +31146,8 @@
   <sheetPr/>
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -32741,7 +32741,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>78</v>

--- a/docs/Aspekty.xlsx
+++ b/docs/Aspekty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -2098,8 +2098,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -21734,8 +21734,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -21857,7 +21857,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23.4" spans="1:2">
@@ -31146,8 +31146,8 @@
   <sheetPr/>
   <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -35567,7 +35567,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -37974,7 +37974,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="4"/>
@@ -40260,8 +40260,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>

--- a/docs/Aspekty.xlsx
+++ b/docs/Aspekty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -21734,8 +21734,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -24008,8 +24008,8 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -28731,8 +28731,8 @@
   <sheetPr/>
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
